--- a/TTCreateArray/inputs/Source Data.xlsx
+++ b/TTCreateArray/inputs/Source Data.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DJ" sheetId="1" r:id="rId1"/>
     <sheet name="PNT" sheetId="3" r:id="rId2"/>
     <sheet name="TFP" sheetId="4" r:id="rId3"/>
+    <sheet name="FSD" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DJ!$A$1:$L$2</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="347">
   <si>
     <t>PATH</t>
   </si>
@@ -808,6 +809,258 @@
   </si>
   <si>
     <t>TFP présent</t>
+  </si>
+  <si>
+    <t>FSD_BGND.png</t>
+  </si>
+  <si>
+    <t>Fsd_FVc1FireDtcdPwp1</t>
+  </si>
+  <si>
+    <t>Fsd_FVc1FireDtcdPwp2</t>
+  </si>
+  <si>
+    <t>Fsd_FVc2FireDtcdPo</t>
+  </si>
+  <si>
+    <t>Fsd_FVc2FireDtcdTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FVe1FireDtcdPoc</t>
+  </si>
+  <si>
+    <t>Fsd_FVe1FireDtcdPwp1</t>
+  </si>
+  <si>
+    <t>Fsd_FVe1FireDtcdPwp2</t>
+  </si>
+  <si>
+    <t>Fsd_FVe1FireDtcdTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FVe2FireDtcdPoc</t>
+  </si>
+  <si>
+    <t>Fsd_FVe2FireDtcdPwp1</t>
+  </si>
+  <si>
+    <t>Fsd_FVe2FireDtcdPwp2</t>
+  </si>
+  <si>
+    <t>Fsd_FVe2FireDtcdTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FVi2FireDtcdTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FViuFireDtcdDjc</t>
+  </si>
+  <si>
+    <t>Fsd_FViuFireDtcdTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FVc1FltFsdPwp1</t>
+  </si>
+  <si>
+    <t>Fsd_FVc1FltFsdPwp2</t>
+  </si>
+  <si>
+    <t>Fsd_FVc2FltFsdPo</t>
+  </si>
+  <si>
+    <t>Fsd_FVc2FltFsdTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FVe1FltFsdPoc</t>
+  </si>
+  <si>
+    <t>Fsd_FVe1FltFsdPwp1</t>
+  </si>
+  <si>
+    <t>Fsd_FVe1FltFsdPwp2</t>
+  </si>
+  <si>
+    <t>Fsd_FVe1FltFsdTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FVe2FltFsdPoc</t>
+  </si>
+  <si>
+    <t>Fsd_FVe2FltFsdPwp1</t>
+  </si>
+  <si>
+    <t>Fsd_FVe2FltFsdPwp2</t>
+  </si>
+  <si>
+    <t>Fsd_FVe2FltFsdTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FVi2FltFsdTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FViuFltFsdDjc</t>
+  </si>
+  <si>
+    <t>Fsd_FViuFltFsdTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FVc1FsdStopNotRequestPwp1</t>
+  </si>
+  <si>
+    <t>Fsd_FVc1FsdStopNotRequestPwp2</t>
+  </si>
+  <si>
+    <t>Fsd_FVc2FsdStopNotRequestPo</t>
+  </si>
+  <si>
+    <t>Fsd_FVc2FsdStopNotRequestTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FVe1FsdStopNotRequestPoc</t>
+  </si>
+  <si>
+    <t>Fsd_FVe1FsdStopNotRequestPwp1</t>
+  </si>
+  <si>
+    <t>Fsd_FVe1FsdStopNotRequestPwp2</t>
+  </si>
+  <si>
+    <t>Fsd_FVe1FsdStopNotRequestTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FVe2FsdStopNotRequestPoc</t>
+  </si>
+  <si>
+    <t>Fsd_FVe2FsdStopNotRequestPwp1</t>
+  </si>
+  <si>
+    <t>Fsd_FVe2FsdStopNotRequestPwp2</t>
+  </si>
+  <si>
+    <t>Fsd_FVe2FsdStopNotRequestTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FVi2FsdStopNotRequestTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FViuFsdStopNotRequestDjc</t>
+  </si>
+  <si>
+    <t>Fsd_FViuFsdStopNotRequestTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FVc1IsolPwp1</t>
+  </si>
+  <si>
+    <t>Fsd_FVc1IsolPwp2</t>
+  </si>
+  <si>
+    <t>Fsd_FVc2IsolPo</t>
+  </si>
+  <si>
+    <t>Fsd_FVc2IsolTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FVe1IsolPoc</t>
+  </si>
+  <si>
+    <t>Fsd_FVe1IsolPwp1</t>
+  </si>
+  <si>
+    <t>Fsd_FVe1IsolPwp2</t>
+  </si>
+  <si>
+    <t>Fsd_FVe1IsolTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FVe2IsolPoc</t>
+  </si>
+  <si>
+    <t>Fsd_FVe2IsolPwp1</t>
+  </si>
+  <si>
+    <t>Fsd_FVe2IsolPwp2</t>
+  </si>
+  <si>
+    <t>Fsd_FVe2IsolTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FVi2IsolTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FViuIsolDjc</t>
+  </si>
+  <si>
+    <t>Fsd_FViuIsolTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FVc1LostWatchPwp1</t>
+  </si>
+  <si>
+    <t>Fsd_FVc1LostWatchPwp2</t>
+  </si>
+  <si>
+    <t>Fsd_FVc2LostWatchPo</t>
+  </si>
+  <si>
+    <t>Fsd_FVc2LostWatchTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FVe1LostWatchPoc</t>
+  </si>
+  <si>
+    <t>Fsd_FVe1LostWatchPwp1</t>
+  </si>
+  <si>
+    <t>Fsd_FVe1LostWatchPwp2</t>
+  </si>
+  <si>
+    <t>Fsd_FVe1LostWatchTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FVe2LostWatchPoc</t>
+  </si>
+  <si>
+    <t>Fsd_FVe2LostWatchPwp1</t>
+  </si>
+  <si>
+    <t>Fsd_FVe2LostWatchPwp2</t>
+  </si>
+  <si>
+    <t>Fsd_FVe2LostWatchTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FVi2LostWatchTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FViuLostWatchDjc</t>
+  </si>
+  <si>
+    <t>Fsd_FViuLostWatchTfp</t>
+  </si>
+  <si>
+    <t>Fsd_FVe2CbWatchFsd</t>
+  </si>
+  <si>
+    <t>R.A.S.</t>
+  </si>
+  <si>
+    <t>Arrêt demandé par FSD</t>
+  </si>
+  <si>
+    <t>Incendie détecté</t>
+  </si>
+  <si>
+    <t>Détection d'incendie en défaut</t>
+  </si>
+  <si>
+    <t>Isolement de l'équipement demandé</t>
+  </si>
+  <si>
+    <t>Perte de la surveillande d'incendie</t>
+  </si>
+  <si>
+    <t>Perte du DJ de la détection d'incendie</t>
   </si>
 </sst>
 </file>
@@ -962,6 +1215,31 @@
     <tableColumn id="20" name="RNGE[130-139]_LEGEND"/>
     <tableColumn id="21" name="RNGE[150-255]_COLOR"/>
     <tableColumn id="22" name="RNGE[150-255]_LEGEND"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau15" displayName="Tableau15" ref="A1:M78" totalsRowShown="0">
+  <autoFilter ref="A1:M78"/>
+  <sortState ref="A2:S77">
+    <sortCondition ref="A1:A77"/>
+  </sortState>
+  <tableColumns count="13">
+    <tableColumn id="3" name="PATH"/>
+    <tableColumn id="4" name="ELEMENT_TYPE"/>
+    <tableColumn id="5" name="IMAGE_PATH"/>
+    <tableColumn id="7" name="POS_X"/>
+    <tableColumn id="6" name="POS_Y"/>
+    <tableColumn id="8" name="SIZE_X"/>
+    <tableColumn id="9" name="SIZE_Y"/>
+    <tableColumn id="10" name="RNGE[0-0]_LEGEND"/>
+    <tableColumn id="11" name="RNGE[0-0]_COLOR"/>
+    <tableColumn id="12" name="RNGE[0-0]_IMAGE"/>
+    <tableColumn id="13" name="RNGE[1-1]_LEGEND"/>
+    <tableColumn id="14" name="RNGE[1-1]_IMAGE"/>
+    <tableColumn id="15" name="RNGE[1-1]_COLOR"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1256,11 +1534,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3168,9 +3446,10 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="95" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7221,4 +7500,2984 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="74" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1312</v>
+      </c>
+      <c r="G2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>270</v>
+      </c>
+      <c r="E3">
+        <v>172</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>340</v>
+      </c>
+      <c r="I3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>342</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>318</v>
+      </c>
+      <c r="E4">
+        <v>172</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>340</v>
+      </c>
+      <c r="I4" t="s">
+        <v>256</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>342</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>270</v>
+      </c>
+      <c r="E5">
+        <v>125</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>340</v>
+      </c>
+      <c r="I5" t="s">
+        <v>256</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>343</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>318</v>
+      </c>
+      <c r="E6">
+        <v>125</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>340</v>
+      </c>
+      <c r="I6" t="s">
+        <v>256</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>343</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>270</v>
+      </c>
+      <c r="E7">
+        <v>217</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>341</v>
+      </c>
+      <c r="I7" t="s">
+        <v>257</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>318</v>
+      </c>
+      <c r="E8">
+        <v>217</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I8" t="s">
+        <v>257</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>340</v>
+      </c>
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>270</v>
+      </c>
+      <c r="E9">
+        <v>262</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>340</v>
+      </c>
+      <c r="I9" t="s">
+        <v>256</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>344</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>318</v>
+      </c>
+      <c r="E10">
+        <v>262</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>340</v>
+      </c>
+      <c r="I10" t="s">
+        <v>256</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
+        <v>344</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>270</v>
+      </c>
+      <c r="E11">
+        <v>79</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>340</v>
+      </c>
+      <c r="I11" t="s">
+        <v>256</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>345</v>
+      </c>
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>318</v>
+      </c>
+      <c r="E12">
+        <v>79</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>340</v>
+      </c>
+      <c r="I12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s">
+        <v>345</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>366</v>
+      </c>
+      <c r="E13">
+        <v>172</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>340</v>
+      </c>
+      <c r="I13" t="s">
+        <v>256</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
+        <v>342</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>414</v>
+      </c>
+      <c r="E14">
+        <v>172</v>
+      </c>
+      <c r="F14">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>340</v>
+      </c>
+      <c r="I14" t="s">
+        <v>256</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>342</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>366</v>
+      </c>
+      <c r="E15">
+        <v>125</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>340</v>
+      </c>
+      <c r="I15" t="s">
+        <v>256</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>343</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>414</v>
+      </c>
+      <c r="E16">
+        <v>125</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>340</v>
+      </c>
+      <c r="I16" t="s">
+        <v>256</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>343</v>
+      </c>
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>366</v>
+      </c>
+      <c r="E17">
+        <v>217</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>341</v>
+      </c>
+      <c r="I17" t="s">
+        <v>257</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>340</v>
+      </c>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>414</v>
+      </c>
+      <c r="E18">
+        <v>217</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>341</v>
+      </c>
+      <c r="I18" t="s">
+        <v>257</v>
+      </c>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
+        <v>340</v>
+      </c>
+      <c r="L18" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>366</v>
+      </c>
+      <c r="E19">
+        <v>262</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>340</v>
+      </c>
+      <c r="I19" t="s">
+        <v>256</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" t="s">
+        <v>344</v>
+      </c>
+      <c r="L19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>414</v>
+      </c>
+      <c r="E20">
+        <v>262</v>
+      </c>
+      <c r="F20">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>340</v>
+      </c>
+      <c r="I20" t="s">
+        <v>256</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" t="s">
+        <v>344</v>
+      </c>
+      <c r="L20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>366</v>
+      </c>
+      <c r="E21">
+        <v>79</v>
+      </c>
+      <c r="F21">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>340</v>
+      </c>
+      <c r="I21" t="s">
+        <v>256</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" t="s">
+        <v>345</v>
+      </c>
+      <c r="L21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>414</v>
+      </c>
+      <c r="E22">
+        <v>79</v>
+      </c>
+      <c r="F22">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>340</v>
+      </c>
+      <c r="I22" t="s">
+        <v>256</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" t="s">
+        <v>345</v>
+      </c>
+      <c r="L22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>462</v>
+      </c>
+      <c r="E23">
+        <v>172</v>
+      </c>
+      <c r="F23">
+        <v>16</v>
+      </c>
+      <c r="G23">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>340</v>
+      </c>
+      <c r="I23" t="s">
+        <v>256</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" t="s">
+        <v>342</v>
+      </c>
+      <c r="L23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>510</v>
+      </c>
+      <c r="E24">
+        <v>172</v>
+      </c>
+      <c r="F24">
+        <v>16</v>
+      </c>
+      <c r="G24">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>340</v>
+      </c>
+      <c r="I24" t="s">
+        <v>256</v>
+      </c>
+      <c r="J24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" t="s">
+        <v>342</v>
+      </c>
+      <c r="L24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>558</v>
+      </c>
+      <c r="E25">
+        <v>172</v>
+      </c>
+      <c r="F25">
+        <v>16</v>
+      </c>
+      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>340</v>
+      </c>
+      <c r="I25" t="s">
+        <v>256</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" t="s">
+        <v>342</v>
+      </c>
+      <c r="L25" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>606</v>
+      </c>
+      <c r="E26">
+        <v>172</v>
+      </c>
+      <c r="F26">
+        <v>16</v>
+      </c>
+      <c r="G26">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>340</v>
+      </c>
+      <c r="I26" t="s">
+        <v>256</v>
+      </c>
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" t="s">
+        <v>342</v>
+      </c>
+      <c r="L26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>462</v>
+      </c>
+      <c r="E27">
+        <v>125</v>
+      </c>
+      <c r="F27">
+        <v>16</v>
+      </c>
+      <c r="G27">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>340</v>
+      </c>
+      <c r="I27" t="s">
+        <v>256</v>
+      </c>
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" t="s">
+        <v>343</v>
+      </c>
+      <c r="L27" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>510</v>
+      </c>
+      <c r="E28">
+        <v>125</v>
+      </c>
+      <c r="F28">
+        <v>16</v>
+      </c>
+      <c r="G28">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>340</v>
+      </c>
+      <c r="I28" t="s">
+        <v>256</v>
+      </c>
+      <c r="J28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" t="s">
+        <v>343</v>
+      </c>
+      <c r="L28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>558</v>
+      </c>
+      <c r="E29">
+        <v>125</v>
+      </c>
+      <c r="F29">
+        <v>16</v>
+      </c>
+      <c r="G29">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>340</v>
+      </c>
+      <c r="I29" t="s">
+        <v>256</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" t="s">
+        <v>343</v>
+      </c>
+      <c r="L29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>606</v>
+      </c>
+      <c r="E30">
+        <v>125</v>
+      </c>
+      <c r="F30">
+        <v>16</v>
+      </c>
+      <c r="G30">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>340</v>
+      </c>
+      <c r="I30" t="s">
+        <v>256</v>
+      </c>
+      <c r="J30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" t="s">
+        <v>343</v>
+      </c>
+      <c r="L30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>462</v>
+      </c>
+      <c r="E31">
+        <v>217</v>
+      </c>
+      <c r="F31">
+        <v>16</v>
+      </c>
+      <c r="G31">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s">
+        <v>341</v>
+      </c>
+      <c r="I31" t="s">
+        <v>257</v>
+      </c>
+      <c r="J31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s">
+        <v>340</v>
+      </c>
+      <c r="L31" t="s">
+        <v>15</v>
+      </c>
+      <c r="M31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>510</v>
+      </c>
+      <c r="E32">
+        <v>217</v>
+      </c>
+      <c r="F32">
+        <v>16</v>
+      </c>
+      <c r="G32">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>341</v>
+      </c>
+      <c r="I32" t="s">
+        <v>257</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s">
+        <v>340</v>
+      </c>
+      <c r="L32" t="s">
+        <v>15</v>
+      </c>
+      <c r="M32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>558</v>
+      </c>
+      <c r="E33">
+        <v>217</v>
+      </c>
+      <c r="F33">
+        <v>16</v>
+      </c>
+      <c r="G33">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>341</v>
+      </c>
+      <c r="I33" t="s">
+        <v>257</v>
+      </c>
+      <c r="J33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s">
+        <v>340</v>
+      </c>
+      <c r="L33" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>606</v>
+      </c>
+      <c r="E34">
+        <v>217</v>
+      </c>
+      <c r="F34">
+        <v>16</v>
+      </c>
+      <c r="G34">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
+        <v>341</v>
+      </c>
+      <c r="I34" t="s">
+        <v>257</v>
+      </c>
+      <c r="J34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s">
+        <v>340</v>
+      </c>
+      <c r="L34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>462</v>
+      </c>
+      <c r="E35">
+        <v>262</v>
+      </c>
+      <c r="F35">
+        <v>16</v>
+      </c>
+      <c r="G35">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
+        <v>340</v>
+      </c>
+      <c r="I35" t="s">
+        <v>256</v>
+      </c>
+      <c r="J35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" t="s">
+        <v>344</v>
+      </c>
+      <c r="L35" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>510</v>
+      </c>
+      <c r="E36">
+        <v>262</v>
+      </c>
+      <c r="F36">
+        <v>16</v>
+      </c>
+      <c r="G36">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s">
+        <v>340</v>
+      </c>
+      <c r="I36" t="s">
+        <v>256</v>
+      </c>
+      <c r="J36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" t="s">
+        <v>344</v>
+      </c>
+      <c r="L36" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>558</v>
+      </c>
+      <c r="E37">
+        <v>262</v>
+      </c>
+      <c r="F37">
+        <v>16</v>
+      </c>
+      <c r="G37">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s">
+        <v>340</v>
+      </c>
+      <c r="I37" t="s">
+        <v>256</v>
+      </c>
+      <c r="J37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" t="s">
+        <v>344</v>
+      </c>
+      <c r="L37" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>606</v>
+      </c>
+      <c r="E38">
+        <v>262</v>
+      </c>
+      <c r="F38">
+        <v>16</v>
+      </c>
+      <c r="G38">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s">
+        <v>340</v>
+      </c>
+      <c r="I38" t="s">
+        <v>256</v>
+      </c>
+      <c r="J38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" t="s">
+        <v>344</v>
+      </c>
+      <c r="L38" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>462</v>
+      </c>
+      <c r="E39">
+        <v>79</v>
+      </c>
+      <c r="F39">
+        <v>16</v>
+      </c>
+      <c r="G39">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s">
+        <v>340</v>
+      </c>
+      <c r="I39" t="s">
+        <v>256</v>
+      </c>
+      <c r="J39" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" t="s">
+        <v>345</v>
+      </c>
+      <c r="L39" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>510</v>
+      </c>
+      <c r="E40">
+        <v>79</v>
+      </c>
+      <c r="F40">
+        <v>16</v>
+      </c>
+      <c r="G40">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s">
+        <v>340</v>
+      </c>
+      <c r="I40" t="s">
+        <v>256</v>
+      </c>
+      <c r="J40" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" t="s">
+        <v>345</v>
+      </c>
+      <c r="L40" t="s">
+        <v>14</v>
+      </c>
+      <c r="M40" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>558</v>
+      </c>
+      <c r="E41">
+        <v>79</v>
+      </c>
+      <c r="F41">
+        <v>16</v>
+      </c>
+      <c r="G41">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s">
+        <v>340</v>
+      </c>
+      <c r="I41" t="s">
+        <v>256</v>
+      </c>
+      <c r="J41" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" t="s">
+        <v>345</v>
+      </c>
+      <c r="L41" t="s">
+        <v>14</v>
+      </c>
+      <c r="M41" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>606</v>
+      </c>
+      <c r="E42">
+        <v>79</v>
+      </c>
+      <c r="F42">
+        <v>16</v>
+      </c>
+      <c r="G42">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s">
+        <v>340</v>
+      </c>
+      <c r="I42" t="s">
+        <v>256</v>
+      </c>
+      <c r="J42" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" t="s">
+        <v>345</v>
+      </c>
+      <c r="L42" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>654</v>
+      </c>
+      <c r="E43">
+        <v>172</v>
+      </c>
+      <c r="F43">
+        <v>16</v>
+      </c>
+      <c r="G43">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>340</v>
+      </c>
+      <c r="I43" t="s">
+        <v>256</v>
+      </c>
+      <c r="J43" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" t="s">
+        <v>342</v>
+      </c>
+      <c r="L43" t="s">
+        <v>14</v>
+      </c>
+      <c r="M43" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>702</v>
+      </c>
+      <c r="E44">
+        <v>172</v>
+      </c>
+      <c r="F44">
+        <v>16</v>
+      </c>
+      <c r="G44">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
+        <v>340</v>
+      </c>
+      <c r="I44" t="s">
+        <v>256</v>
+      </c>
+      <c r="J44" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" t="s">
+        <v>342</v>
+      </c>
+      <c r="L44" t="s">
+        <v>14</v>
+      </c>
+      <c r="M44" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>750</v>
+      </c>
+      <c r="E45">
+        <v>172</v>
+      </c>
+      <c r="F45">
+        <v>16</v>
+      </c>
+      <c r="G45">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s">
+        <v>340</v>
+      </c>
+      <c r="I45" t="s">
+        <v>256</v>
+      </c>
+      <c r="J45" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" t="s">
+        <v>342</v>
+      </c>
+      <c r="L45" t="s">
+        <v>14</v>
+      </c>
+      <c r="M45" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>798</v>
+      </c>
+      <c r="E46">
+        <v>172</v>
+      </c>
+      <c r="F46">
+        <v>16</v>
+      </c>
+      <c r="G46">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s">
+        <v>340</v>
+      </c>
+      <c r="I46" t="s">
+        <v>256</v>
+      </c>
+      <c r="J46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" t="s">
+        <v>342</v>
+      </c>
+      <c r="L46" t="s">
+        <v>14</v>
+      </c>
+      <c r="M46" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>654</v>
+      </c>
+      <c r="E47">
+        <v>125</v>
+      </c>
+      <c r="F47">
+        <v>16</v>
+      </c>
+      <c r="G47">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s">
+        <v>340</v>
+      </c>
+      <c r="I47" t="s">
+        <v>256</v>
+      </c>
+      <c r="J47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" t="s">
+        <v>343</v>
+      </c>
+      <c r="L47" t="s">
+        <v>14</v>
+      </c>
+      <c r="M47" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>702</v>
+      </c>
+      <c r="E48">
+        <v>125</v>
+      </c>
+      <c r="F48">
+        <v>16</v>
+      </c>
+      <c r="G48">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s">
+        <v>340</v>
+      </c>
+      <c r="I48" t="s">
+        <v>256</v>
+      </c>
+      <c r="J48" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" t="s">
+        <v>343</v>
+      </c>
+      <c r="L48" t="s">
+        <v>14</v>
+      </c>
+      <c r="M48" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>750</v>
+      </c>
+      <c r="E49">
+        <v>125</v>
+      </c>
+      <c r="F49">
+        <v>16</v>
+      </c>
+      <c r="G49">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s">
+        <v>340</v>
+      </c>
+      <c r="I49" t="s">
+        <v>256</v>
+      </c>
+      <c r="J49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" t="s">
+        <v>343</v>
+      </c>
+      <c r="L49" t="s">
+        <v>14</v>
+      </c>
+      <c r="M49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>798</v>
+      </c>
+      <c r="E50">
+        <v>125</v>
+      </c>
+      <c r="F50">
+        <v>16</v>
+      </c>
+      <c r="G50">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s">
+        <v>340</v>
+      </c>
+      <c r="I50" t="s">
+        <v>256</v>
+      </c>
+      <c r="J50" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" t="s">
+        <v>343</v>
+      </c>
+      <c r="L50" t="s">
+        <v>14</v>
+      </c>
+      <c r="M50" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>654</v>
+      </c>
+      <c r="E51">
+        <v>217</v>
+      </c>
+      <c r="F51">
+        <v>16</v>
+      </c>
+      <c r="G51">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s">
+        <v>341</v>
+      </c>
+      <c r="I51" t="s">
+        <v>257</v>
+      </c>
+      <c r="J51" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" t="s">
+        <v>340</v>
+      </c>
+      <c r="L51" t="s">
+        <v>15</v>
+      </c>
+      <c r="M51" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>702</v>
+      </c>
+      <c r="E52">
+        <v>217</v>
+      </c>
+      <c r="F52">
+        <v>16</v>
+      </c>
+      <c r="G52">
+        <v>16</v>
+      </c>
+      <c r="H52" t="s">
+        <v>341</v>
+      </c>
+      <c r="I52" t="s">
+        <v>257</v>
+      </c>
+      <c r="J52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" t="s">
+        <v>340</v>
+      </c>
+      <c r="L52" t="s">
+        <v>15</v>
+      </c>
+      <c r="M52" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>750</v>
+      </c>
+      <c r="E53">
+        <v>217</v>
+      </c>
+      <c r="F53">
+        <v>16</v>
+      </c>
+      <c r="G53">
+        <v>16</v>
+      </c>
+      <c r="H53" t="s">
+        <v>341</v>
+      </c>
+      <c r="I53" t="s">
+        <v>257</v>
+      </c>
+      <c r="J53" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" t="s">
+        <v>340</v>
+      </c>
+      <c r="L53" t="s">
+        <v>15</v>
+      </c>
+      <c r="M53" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>798</v>
+      </c>
+      <c r="E54">
+        <v>217</v>
+      </c>
+      <c r="F54">
+        <v>16</v>
+      </c>
+      <c r="G54">
+        <v>16</v>
+      </c>
+      <c r="H54" t="s">
+        <v>341</v>
+      </c>
+      <c r="I54" t="s">
+        <v>257</v>
+      </c>
+      <c r="J54" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" t="s">
+        <v>340</v>
+      </c>
+      <c r="L54" t="s">
+        <v>15</v>
+      </c>
+      <c r="M54" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>654</v>
+      </c>
+      <c r="E55">
+        <v>262</v>
+      </c>
+      <c r="F55">
+        <v>16</v>
+      </c>
+      <c r="G55">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s">
+        <v>340</v>
+      </c>
+      <c r="I55" t="s">
+        <v>256</v>
+      </c>
+      <c r="J55" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55" t="s">
+        <v>344</v>
+      </c>
+      <c r="L55" t="s">
+        <v>14</v>
+      </c>
+      <c r="M55" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>702</v>
+      </c>
+      <c r="E56">
+        <v>262</v>
+      </c>
+      <c r="F56">
+        <v>16</v>
+      </c>
+      <c r="G56">
+        <v>16</v>
+      </c>
+      <c r="H56" t="s">
+        <v>340</v>
+      </c>
+      <c r="I56" t="s">
+        <v>256</v>
+      </c>
+      <c r="J56" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" t="s">
+        <v>344</v>
+      </c>
+      <c r="L56" t="s">
+        <v>14</v>
+      </c>
+      <c r="M56" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>750</v>
+      </c>
+      <c r="E57">
+        <v>262</v>
+      </c>
+      <c r="F57">
+        <v>16</v>
+      </c>
+      <c r="G57">
+        <v>16</v>
+      </c>
+      <c r="H57" t="s">
+        <v>340</v>
+      </c>
+      <c r="I57" t="s">
+        <v>256</v>
+      </c>
+      <c r="J57" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" t="s">
+        <v>344</v>
+      </c>
+      <c r="L57" t="s">
+        <v>14</v>
+      </c>
+      <c r="M57" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>798</v>
+      </c>
+      <c r="E58">
+        <v>262</v>
+      </c>
+      <c r="F58">
+        <v>16</v>
+      </c>
+      <c r="G58">
+        <v>16</v>
+      </c>
+      <c r="H58" t="s">
+        <v>340</v>
+      </c>
+      <c r="I58" t="s">
+        <v>256</v>
+      </c>
+      <c r="J58" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" t="s">
+        <v>344</v>
+      </c>
+      <c r="L58" t="s">
+        <v>14</v>
+      </c>
+      <c r="M58" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>654</v>
+      </c>
+      <c r="E59">
+        <v>79</v>
+      </c>
+      <c r="F59">
+        <v>16</v>
+      </c>
+      <c r="G59">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s">
+        <v>340</v>
+      </c>
+      <c r="I59" t="s">
+        <v>256</v>
+      </c>
+      <c r="J59" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" t="s">
+        <v>345</v>
+      </c>
+      <c r="L59" t="s">
+        <v>14</v>
+      </c>
+      <c r="M59" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>702</v>
+      </c>
+      <c r="E60">
+        <v>79</v>
+      </c>
+      <c r="F60">
+        <v>16</v>
+      </c>
+      <c r="G60">
+        <v>16</v>
+      </c>
+      <c r="H60" t="s">
+        <v>340</v>
+      </c>
+      <c r="I60" t="s">
+        <v>256</v>
+      </c>
+      <c r="J60" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" t="s">
+        <v>345</v>
+      </c>
+      <c r="L60" t="s">
+        <v>14</v>
+      </c>
+      <c r="M60" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>750</v>
+      </c>
+      <c r="E61">
+        <v>79</v>
+      </c>
+      <c r="F61">
+        <v>16</v>
+      </c>
+      <c r="G61">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s">
+        <v>340</v>
+      </c>
+      <c r="I61" t="s">
+        <v>256</v>
+      </c>
+      <c r="J61" t="s">
+        <v>15</v>
+      </c>
+      <c r="K61" t="s">
+        <v>345</v>
+      </c>
+      <c r="L61" t="s">
+        <v>14</v>
+      </c>
+      <c r="M61" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>798</v>
+      </c>
+      <c r="E62">
+        <v>79</v>
+      </c>
+      <c r="F62">
+        <v>16</v>
+      </c>
+      <c r="G62">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s">
+        <v>340</v>
+      </c>
+      <c r="I62" t="s">
+        <v>256</v>
+      </c>
+      <c r="J62" t="s">
+        <v>15</v>
+      </c>
+      <c r="K62" t="s">
+        <v>345</v>
+      </c>
+      <c r="L62" t="s">
+        <v>14</v>
+      </c>
+      <c r="M62" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>846</v>
+      </c>
+      <c r="E63">
+        <v>172</v>
+      </c>
+      <c r="F63">
+        <v>16</v>
+      </c>
+      <c r="G63">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s">
+        <v>340</v>
+      </c>
+      <c r="I63" t="s">
+        <v>256</v>
+      </c>
+      <c r="J63" t="s">
+        <v>15</v>
+      </c>
+      <c r="K63" t="s">
+        <v>342</v>
+      </c>
+      <c r="L63" t="s">
+        <v>14</v>
+      </c>
+      <c r="M63" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>846</v>
+      </c>
+      <c r="E64">
+        <v>125</v>
+      </c>
+      <c r="F64">
+        <v>16</v>
+      </c>
+      <c r="G64">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s">
+        <v>340</v>
+      </c>
+      <c r="I64" t="s">
+        <v>256</v>
+      </c>
+      <c r="J64" t="s">
+        <v>15</v>
+      </c>
+      <c r="K64" t="s">
+        <v>343</v>
+      </c>
+      <c r="L64" t="s">
+        <v>14</v>
+      </c>
+      <c r="M64" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>846</v>
+      </c>
+      <c r="E65">
+        <v>217</v>
+      </c>
+      <c r="F65">
+        <v>16</v>
+      </c>
+      <c r="G65">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s">
+        <v>341</v>
+      </c>
+      <c r="I65" t="s">
+        <v>257</v>
+      </c>
+      <c r="J65" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" t="s">
+        <v>340</v>
+      </c>
+      <c r="L65" t="s">
+        <v>15</v>
+      </c>
+      <c r="M65" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>846</v>
+      </c>
+      <c r="E66">
+        <v>262</v>
+      </c>
+      <c r="F66">
+        <v>16</v>
+      </c>
+      <c r="G66">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s">
+        <v>340</v>
+      </c>
+      <c r="I66" t="s">
+        <v>256</v>
+      </c>
+      <c r="J66" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" t="s">
+        <v>344</v>
+      </c>
+      <c r="L66" t="s">
+        <v>14</v>
+      </c>
+      <c r="M66" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>846</v>
+      </c>
+      <c r="E67">
+        <v>79</v>
+      </c>
+      <c r="F67">
+        <v>16</v>
+      </c>
+      <c r="G67">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s">
+        <v>340</v>
+      </c>
+      <c r="I67" t="s">
+        <v>256</v>
+      </c>
+      <c r="J67" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" t="s">
+        <v>345</v>
+      </c>
+      <c r="L67" t="s">
+        <v>14</v>
+      </c>
+      <c r="M67" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>894</v>
+      </c>
+      <c r="E68">
+        <v>172</v>
+      </c>
+      <c r="F68">
+        <v>16</v>
+      </c>
+      <c r="G68">
+        <v>16</v>
+      </c>
+      <c r="H68" t="s">
+        <v>340</v>
+      </c>
+      <c r="I68" t="s">
+        <v>256</v>
+      </c>
+      <c r="J68" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" t="s">
+        <v>342</v>
+      </c>
+      <c r="L68" t="s">
+        <v>14</v>
+      </c>
+      <c r="M68" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>942</v>
+      </c>
+      <c r="E69">
+        <v>172</v>
+      </c>
+      <c r="F69">
+        <v>16</v>
+      </c>
+      <c r="G69">
+        <v>16</v>
+      </c>
+      <c r="H69" t="s">
+        <v>340</v>
+      </c>
+      <c r="I69" t="s">
+        <v>256</v>
+      </c>
+      <c r="J69" t="s">
+        <v>15</v>
+      </c>
+      <c r="K69" t="s">
+        <v>342</v>
+      </c>
+      <c r="L69" t="s">
+        <v>14</v>
+      </c>
+      <c r="M69" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>894</v>
+      </c>
+      <c r="E70">
+        <v>125</v>
+      </c>
+      <c r="F70">
+        <v>16</v>
+      </c>
+      <c r="G70">
+        <v>16</v>
+      </c>
+      <c r="H70" t="s">
+        <v>340</v>
+      </c>
+      <c r="I70" t="s">
+        <v>256</v>
+      </c>
+      <c r="J70" t="s">
+        <v>15</v>
+      </c>
+      <c r="K70" t="s">
+        <v>343</v>
+      </c>
+      <c r="L70" t="s">
+        <v>14</v>
+      </c>
+      <c r="M70" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>942</v>
+      </c>
+      <c r="E71">
+        <v>125</v>
+      </c>
+      <c r="F71">
+        <v>16</v>
+      </c>
+      <c r="G71">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s">
+        <v>340</v>
+      </c>
+      <c r="I71" t="s">
+        <v>256</v>
+      </c>
+      <c r="J71" t="s">
+        <v>15</v>
+      </c>
+      <c r="K71" t="s">
+        <v>343</v>
+      </c>
+      <c r="L71" t="s">
+        <v>14</v>
+      </c>
+      <c r="M71" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>894</v>
+      </c>
+      <c r="E72">
+        <v>217</v>
+      </c>
+      <c r="F72">
+        <v>16</v>
+      </c>
+      <c r="G72">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s">
+        <v>341</v>
+      </c>
+      <c r="I72" t="s">
+        <v>257</v>
+      </c>
+      <c r="J72" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72" t="s">
+        <v>340</v>
+      </c>
+      <c r="L72" t="s">
+        <v>15</v>
+      </c>
+      <c r="M72" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>942</v>
+      </c>
+      <c r="E73">
+        <v>217</v>
+      </c>
+      <c r="F73">
+        <v>16</v>
+      </c>
+      <c r="G73">
+        <v>16</v>
+      </c>
+      <c r="H73" t="s">
+        <v>341</v>
+      </c>
+      <c r="I73" t="s">
+        <v>257</v>
+      </c>
+      <c r="J73" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73" t="s">
+        <v>340</v>
+      </c>
+      <c r="L73" t="s">
+        <v>15</v>
+      </c>
+      <c r="M73" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74">
+        <v>894</v>
+      </c>
+      <c r="E74">
+        <v>262</v>
+      </c>
+      <c r="F74">
+        <v>16</v>
+      </c>
+      <c r="G74">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s">
+        <v>340</v>
+      </c>
+      <c r="I74" t="s">
+        <v>256</v>
+      </c>
+      <c r="J74" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" t="s">
+        <v>344</v>
+      </c>
+      <c r="L74" t="s">
+        <v>14</v>
+      </c>
+      <c r="M74" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75">
+        <v>942</v>
+      </c>
+      <c r="E75">
+        <v>262</v>
+      </c>
+      <c r="F75">
+        <v>16</v>
+      </c>
+      <c r="G75">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s">
+        <v>340</v>
+      </c>
+      <c r="I75" t="s">
+        <v>256</v>
+      </c>
+      <c r="J75" t="s">
+        <v>15</v>
+      </c>
+      <c r="K75" t="s">
+        <v>344</v>
+      </c>
+      <c r="L75" t="s">
+        <v>14</v>
+      </c>
+      <c r="M75" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76">
+        <v>894</v>
+      </c>
+      <c r="E76">
+        <v>79</v>
+      </c>
+      <c r="F76">
+        <v>16</v>
+      </c>
+      <c r="G76">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s">
+        <v>340</v>
+      </c>
+      <c r="I76" t="s">
+        <v>256</v>
+      </c>
+      <c r="J76" t="s">
+        <v>15</v>
+      </c>
+      <c r="K76" t="s">
+        <v>345</v>
+      </c>
+      <c r="L76" t="s">
+        <v>14</v>
+      </c>
+      <c r="M76" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <v>942</v>
+      </c>
+      <c r="E77">
+        <v>79</v>
+      </c>
+      <c r="F77">
+        <v>16</v>
+      </c>
+      <c r="G77">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s">
+        <v>340</v>
+      </c>
+      <c r="I77" t="s">
+        <v>256</v>
+      </c>
+      <c r="J77" t="s">
+        <v>15</v>
+      </c>
+      <c r="K77" t="s">
+        <v>345</v>
+      </c>
+      <c r="L77" t="s">
+        <v>14</v>
+      </c>
+      <c r="M77" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78">
+        <v>155</v>
+      </c>
+      <c r="E78">
+        <v>1157</v>
+      </c>
+      <c r="F78">
+        <v>16</v>
+      </c>
+      <c r="G78">
+        <v>16</v>
+      </c>
+      <c r="H78" t="s">
+        <v>346</v>
+      </c>
+      <c r="I78" t="s">
+        <v>257</v>
+      </c>
+      <c r="J78" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78" t="s">
+        <v>340</v>
+      </c>
+      <c r="L78" t="s">
+        <v>15</v>
+      </c>
+      <c r="M78" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>